--- a/pd_data.xlsx
+++ b/pd_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP.STUD\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.d.ginkul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Межфакторная корреляция" sheetId="45" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -440,14 +440,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1365,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:CV223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
@@ -1413,13 +1416,13 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="5:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
@@ -4376,48 +4379,48 @@
       <c r="CV48" s="12"/>
     </row>
     <row r="49" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="H49" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="I49" s="22" t="s">
+      <c r="I49" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="J49" s="22" t="s">
+      <c r="J49" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="K49" s="22" t="s">
+      <c r="K49" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="L49" s="22" t="s">
+      <c r="L49" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="M49" s="22" t="s">
+      <c r="M49" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="N49" s="22" t="s">
+      <c r="N49" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="W49" s="22"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="W49" s="21"/>
       <c r="AA49" s="13"/>
       <c r="AK49" s="12"/>
       <c r="AL49" s="12"/>
@@ -4485,22 +4488,22 @@
       <c r="CV49" s="12"/>
     </row>
     <row r="50" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="W50" s="22"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="W50" s="21"/>
       <c r="AA50" s="13"/>
       <c r="AK50" s="12"/>
       <c r="AL50" s="12"/>
@@ -4568,22 +4571,22 @@
       <c r="CV50" s="12"/>
     </row>
     <row r="51" spans="1:100" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="W51" s="22"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="W51" s="21"/>
       <c r="AA51" s="13"/>
       <c r="AK51" s="12"/>
       <c r="AL51" s="12"/>
@@ -4770,51 +4773,51 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <f>(I8-K8)/(H8+I8)</f>
+        <f t="shared" ref="C53:C92" si="0">(I8-K8)/(H8+I8)</f>
         <v>-0.5053822360272614</v>
       </c>
       <c r="D53">
-        <f>K8/I8</f>
+        <f t="shared" ref="D53:D92" si="1">K8/I8</f>
         <v>1.5848181623763269</v>
       </c>
       <c r="E53">
-        <f>IF((J8+K8)&gt;(H8+I8),1,0)</f>
+        <f t="shared" ref="E53:E92" si="2">IF((J8+K8)&gt;(H8+I8),1,0)</f>
         <v>1</v>
       </c>
       <c r="F53">
-        <f>N8/(H8+I8)</f>
+        <f t="shared" ref="F53:F92" si="3">N8/(H8+I8)</f>
         <v>-0.16909461711551058</v>
       </c>
       <c r="G53">
-        <f>IF(AND(N8&lt;0, O8&lt;0), 1, 0)</f>
+        <f t="shared" ref="G53:G92" si="4">IF(AND(N8&lt;0, O8&lt;0), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="H53">
-        <f>(N8-O8)/(ABS(N8)+ABS(O8))</f>
+        <f t="shared" ref="H53:H92" si="5">(N8-O8)/(ABS(N8)+ABS(O8))</f>
         <v>0.11205982880516904</v>
       </c>
       <c r="I53">
-        <f>Q8/R8</f>
+        <f t="shared" ref="I53:I58" si="6">Q8/R8</f>
         <v>0</v>
       </c>
       <c r="J53">
-        <f>R8/L8</f>
+        <f t="shared" ref="J53:J69" si="7">R8/L8</f>
         <v>6.339056908196806</v>
       </c>
       <c r="K53">
-        <f>N8/I8</f>
+        <f t="shared" ref="K53:K92" si="8">N8/I8</f>
         <v>-0.19567289113004588</v>
       </c>
       <c r="L53">
-        <f>I8/K8</f>
+        <f t="shared" ref="L53:L92" si="9">I8/K8</f>
         <v>0.6309872159090909</v>
       </c>
       <c r="M53">
-        <f>(H8+I8-J8-K8)/(H8+I8)</f>
+        <f t="shared" ref="M53:M92" si="10">(H8+I8-J8-K8)/(H8+I8)</f>
         <v>-0.36955210717782777</v>
       </c>
       <c r="N53">
-        <f>N8/H8*100</f>
+        <f t="shared" ref="N53:N90" si="11">N8/H8*100</f>
         <v>-124.48977156088131</v>
       </c>
       <c r="AC53" s="4"/>
@@ -4891,51 +4894,51 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <f>(I9-K9)/(H9+I9)</f>
+        <f t="shared" si="0"/>
         <v>-0.26344701730864128</v>
       </c>
       <c r="D54">
-        <f>K9/I9</f>
+        <f t="shared" si="1"/>
         <v>1.2669641846246744</v>
       </c>
       <c r="E54">
-        <f>IF((J9+K9)&gt;(H9+I9),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F54">
-        <f>N9/(H9+I9)</f>
+        <f t="shared" si="3"/>
         <v>1.2038769866763499E-2</v>
       </c>
       <c r="G54">
-        <f>IF(AND(N9&lt;0, O9&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H54">
-        <f>(N9-O9)/(ABS(N9)+ABS(O9))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I54">
-        <f>Q9/R9</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J54">
-        <f>R9/L9</f>
+        <f t="shared" si="7"/>
         <v>4.5348881727977535</v>
       </c>
       <c r="K54">
-        <f>N9/I9</f>
+        <f t="shared" si="8"/>
         <v>1.219949428237159E-2</v>
       </c>
       <c r="L54">
-        <f>I9/K9</f>
+        <f t="shared" si="9"/>
         <v>0.78928829412509405</v>
       </c>
       <c r="M54">
-        <f>(H9+I9-J9-K9)/(H9+I9)</f>
+        <f t="shared" si="10"/>
         <v>-0.26190143664515891</v>
       </c>
       <c r="N54">
-        <f>N9/H9*100</f>
+        <f t="shared" si="11"/>
         <v>91.378091872791529</v>
       </c>
       <c r="AC54" s="4"/>
@@ -5012,51 +5015,51 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <f>(I10-K10)/(H10+I10)</f>
+        <f t="shared" si="0"/>
         <v>4.9223487861244815E-3</v>
       </c>
       <c r="D55">
-        <f>K10/I10</f>
+        <f t="shared" si="1"/>
         <v>0.99504147409017174</v>
       </c>
       <c r="E55">
-        <f>IF((J10+K10)&gt;(H10+I10),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F55">
-        <f>N10/(H10+I10)</f>
+        <f t="shared" si="3"/>
         <v>2.7221267978458914E-3</v>
       </c>
       <c r="G55">
-        <f>IF(AND(N10&lt;0, O10&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H55">
-        <f>(N10-O10)/(ABS(N10)+ABS(O10))</f>
+        <f t="shared" si="5"/>
         <v>-0.40507812500000001</v>
       </c>
       <c r="I55">
-        <f>Q10/R10</f>
+        <f t="shared" si="6"/>
         <v>4.6323895156115326E-4</v>
       </c>
       <c r="J55">
-        <f>R10/L10</f>
+        <f t="shared" si="7"/>
         <v>0.94193449166303045</v>
       </c>
       <c r="K55">
-        <f>N10/I10</f>
+        <f t="shared" si="8"/>
         <v>2.7421332464300954E-3</v>
       </c>
       <c r="L55">
-        <f>I10/K10</f>
+        <f t="shared" si="9"/>
         <v>1.0049832354117321</v>
       </c>
       <c r="M55">
-        <f>(H10+I10-J10-K10)/(H10+I10)</f>
+        <f t="shared" si="10"/>
         <v>1.2218292048637239E-2</v>
       </c>
       <c r="N55">
-        <f>N10/H10*100</f>
+        <f t="shared" si="11"/>
         <v>37.310142087212149</v>
       </c>
       <c r="AC55" s="4"/>
@@ -5133,51 +5136,51 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <f>(I11-K11)/(H11+I11)</f>
+        <f t="shared" si="0"/>
         <v>-0.21624487281334609</v>
       </c>
       <c r="D56">
-        <f>K11/I11</f>
+        <f t="shared" si="1"/>
         <v>1.235466707152163</v>
       </c>
       <c r="E56">
-        <f>IF((J11+K11)&gt;(H11+I11),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F56">
-        <f>N11/(H11+I11)</f>
+        <f t="shared" si="3"/>
         <v>-7.8685494722848207E-2</v>
       </c>
       <c r="G56">
-        <f>IF(AND(N11&lt;0, O11&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H56">
-        <f>(N11-O11)/(ABS(N11)+ABS(O11))</f>
+        <f t="shared" si="5"/>
         <v>0.17446547941011378</v>
       </c>
       <c r="I56">
-        <f>Q11/R11</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J56">
-        <f>R11/L11</f>
+        <f t="shared" si="7"/>
         <v>1.0312282825565495E-3</v>
       </c>
       <c r="K56">
-        <f>N11/I11</f>
+        <f t="shared" si="8"/>
         <v>-8.5679785615173587E-2</v>
       </c>
       <c r="L56">
-        <f>I11/K11</f>
+        <f t="shared" si="9"/>
         <v>0.80941072245084589</v>
       </c>
       <c r="M56">
-        <f>(H11+I11-J11-K11)/(H11+I11)</f>
+        <f t="shared" si="10"/>
         <v>-0.14048410369481687</v>
       </c>
       <c r="N56">
-        <f>N11/H11*100</f>
+        <f t="shared" si="11"/>
         <v>-96.389418493803618</v>
       </c>
       <c r="AC56" s="4"/>
@@ -5254,51 +5257,51 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <f>(I12-K12)/(H12+I12)</f>
+        <f t="shared" si="0"/>
         <v>-0.3778835267478064</v>
       </c>
       <c r="D57">
-        <f>K12/I12</f>
+        <f t="shared" si="1"/>
         <v>1.9036338254579297</v>
       </c>
       <c r="E57">
-        <f>IF((J12+K12)&gt;(H12+I12),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F57">
-        <f>N12/(H12+I12)</f>
+        <f t="shared" si="3"/>
         <v>1.4063826776110953E-2</v>
       </c>
       <c r="G57">
-        <f>IF(AND(N12&lt;0, O12&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H57">
-        <f>(N12-O12)/(ABS(N12)+ABS(O12))</f>
+        <f t="shared" si="5"/>
         <v>7.9429735234215884E-2</v>
       </c>
       <c r="I57">
-        <f>Q12/R12</f>
+        <f t="shared" si="6"/>
         <v>0.31526489545668918</v>
       </c>
       <c r="J57">
-        <f>R12/L12</f>
+        <f t="shared" si="7"/>
         <v>1.9704479276376929</v>
       </c>
       <c r="K57">
-        <f>N12/I12</f>
+        <f t="shared" si="8"/>
         <v>3.363086424975676E-2</v>
       </c>
       <c r="L57">
-        <f>I12/K12</f>
+        <f t="shared" si="9"/>
         <v>0.52531111111111106</v>
       </c>
       <c r="M57">
-        <f>(H12+I12-J12-K12)/(H12+I12)</f>
+        <f t="shared" si="10"/>
         <v>0.11548259269742428</v>
       </c>
       <c r="N57">
-        <f>N12/H12*100</f>
+        <f t="shared" si="11"/>
         <v>2.4172215634406644</v>
       </c>
       <c r="AC57" s="4"/>
@@ -5375,51 +5378,51 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <f>(I13-K13)/(H13+I13)</f>
+        <f t="shared" si="0"/>
         <v>0.72765922204124456</v>
       </c>
       <c r="D58">
-        <f>K13/I13</f>
+        <f t="shared" si="1"/>
         <v>0.27187845303867403</v>
       </c>
       <c r="E58">
-        <f>IF((J13+K13)&gt;(H13+I13),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F58">
-        <f>N13/(H13+I13)</f>
+        <f t="shared" si="3"/>
         <v>0.20050796455290837</v>
       </c>
       <c r="G58">
-        <f>IF(AND(N13&lt;0, O13&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H58">
-        <f>(N13-O13)/(ABS(N13)+ABS(O13))</f>
+        <f t="shared" si="5"/>
         <v>0.20718025430067316</v>
       </c>
       <c r="I58">
-        <f>Q13/R13</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J58">
-        <f>R13/L13</f>
+        <f t="shared" si="7"/>
         <v>9.6636507434356211</v>
       </c>
       <c r="K58">
-        <f>N13/I13</f>
+        <f t="shared" si="8"/>
         <v>0.20063535911602209</v>
       </c>
       <c r="L58">
-        <f>I13/K13</f>
+        <f t="shared" si="9"/>
         <v>3.6781142044299937</v>
       </c>
       <c r="M58">
-        <f>(H13+I13-J13-K13)/(H13+I13)</f>
+        <f t="shared" si="10"/>
         <v>0.72815614388648098</v>
       </c>
       <c r="N58">
-        <f>N13/H13*100</f>
+        <f t="shared" si="11"/>
         <v>31578.26086956522</v>
       </c>
       <c r="AC58" s="4"/>
@@ -5496,27 +5499,27 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <f>(I14-K14)/(H14+I14)</f>
+        <f t="shared" si="0"/>
         <v>6.649148863246887E-2</v>
       </c>
       <c r="D59">
-        <f>K14/I14</f>
+        <f t="shared" si="1"/>
         <v>0.93168212231482572</v>
       </c>
       <c r="E59">
-        <f>IF((J14+K14)&gt;(H14+I14),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F59">
-        <f>N14/(H14+I14)</f>
+        <f t="shared" si="3"/>
         <v>-0.10339312235804866</v>
       </c>
       <c r="G59">
-        <f>IF(AND(N14&lt;0, O14&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H59">
-        <f>(N14-O14)/(ABS(N14)+ABS(O14))</f>
+        <f t="shared" si="5"/>
         <v>0.79041222788327925</v>
       </c>
       <c r="I59">
@@ -5524,23 +5527,23 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <f>R14/L14</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K59">
-        <f>N14/I14</f>
+        <f t="shared" si="8"/>
         <v>-0.10623312595375044</v>
       </c>
       <c r="L59">
-        <f>I14/K14</f>
+        <f t="shared" si="9"/>
         <v>1.0733274536978707</v>
       </c>
       <c r="M59">
-        <f>(H14+I14-J14-K14)/(H14+I14)</f>
+        <f t="shared" si="10"/>
         <v>-9.6652576259568149E-2</v>
       </c>
       <c r="N59">
-        <f>N14/H14*100</f>
+        <f t="shared" si="11"/>
         <v>-386.75213675213678</v>
       </c>
       <c r="AC59" s="4"/>
@@ -5617,27 +5620,27 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <f>(I15-K15)/(H15+I15)</f>
+        <f t="shared" si="0"/>
         <v>-0.50302668009061158</v>
       </c>
       <c r="D60">
-        <f>K15/I15</f>
+        <f t="shared" si="1"/>
         <v>1.7192658074094069</v>
       </c>
       <c r="E60">
-        <f>IF((J15+K15)&gt;(H15+I15),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F60">
-        <f>N15/(H15+I15)</f>
+        <f t="shared" si="3"/>
         <v>4.4534986156556759E-2</v>
       </c>
       <c r="G60">
-        <f>IF(AND(N15&lt;0, O15&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H60">
-        <f>(N15-O15)/(ABS(N15)+ABS(O15))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I60">
@@ -5645,23 +5648,23 @@
         <v>9.8937721308060816E-3</v>
       </c>
       <c r="J60">
-        <f>R15/L15</f>
+        <f t="shared" si="7"/>
         <v>0.1192883941660248</v>
       </c>
       <c r="K60">
-        <f>N15/I15</f>
+        <f t="shared" si="8"/>
         <v>6.3679510538272935E-2</v>
       </c>
       <c r="L60">
-        <f>I15/K15</f>
+        <f t="shared" si="9"/>
         <v>0.58164362700076144</v>
       </c>
       <c r="M60">
-        <f>(H15+I15-J15-K15)/(H15+I15)</f>
+        <f t="shared" si="10"/>
         <v>-0.44878869871633525</v>
       </c>
       <c r="N60">
-        <f>N15/H15*100</f>
+        <f t="shared" si="11"/>
         <v>14.813458217780337</v>
       </c>
       <c r="AC60" s="4"/>
@@ -5738,27 +5741,27 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <f>(I16-K16)/(H16+I16)</f>
+        <f t="shared" si="0"/>
         <v>5.2454620900985252E-2</v>
       </c>
       <c r="D61">
-        <f>K16/I16</f>
+        <f t="shared" si="1"/>
         <v>0.94493342864802077</v>
       </c>
       <c r="E61">
-        <f>IF((J16+K16)&gt;(H16+I16),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F61">
-        <f>N16/(H16+I16)</f>
+        <f t="shared" si="3"/>
         <v>1.702381205711489E-4</v>
       </c>
       <c r="G61">
-        <f>IF(AND(N16&lt;0, O16&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H61">
-        <f>(N16-O16)/(ABS(N16)+ABS(O16))</f>
+        <f t="shared" si="5"/>
         <v>-0.80952380952380953</v>
       </c>
       <c r="I61">
@@ -5766,23 +5769,23 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <f>R16/L16</f>
+        <f t="shared" si="7"/>
         <v>1.2487987433006837</v>
       </c>
       <c r="K61">
-        <f>N16/I16</f>
+        <f t="shared" si="8"/>
         <v>1.7871503887052095E-4</v>
       </c>
       <c r="L61">
-        <f>I16/K16</f>
+        <f t="shared" si="9"/>
         <v>1.058275609352467</v>
       </c>
       <c r="M61">
-        <f>(H16+I16-J16-K16)/(H16+I16)</f>
+        <f t="shared" si="10"/>
         <v>5.3837805630625839E-3</v>
       </c>
       <c r="N61">
-        <f>N16/H16*100</f>
+        <f t="shared" si="11"/>
         <v>0.35890533871691338</v>
       </c>
       <c r="AC61" s="4"/>
@@ -5859,27 +5862,27 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <f>(I17-K17)/(H17+I17)</f>
+        <f t="shared" si="0"/>
         <v>0.49083054741563142</v>
       </c>
       <c r="D62">
-        <f>K17/I17</f>
+        <f t="shared" si="1"/>
         <v>0.29914546704645911</v>
       </c>
       <c r="E62">
-        <f>IF((J17+K17)&gt;(H17+I17),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F62">
-        <f>N17/(H17+I17)</f>
+        <f t="shared" si="3"/>
         <v>1.3757618281123171E-4</v>
       </c>
       <c r="G62">
-        <f>IF(AND(N17&lt;0, O17&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H62">
-        <f>(N17-O17)/(ABS(N17)+ABS(O17))</f>
+        <f t="shared" si="5"/>
         <v>-0.97429305912596398</v>
       </c>
       <c r="I62">
@@ -5887,23 +5890,23 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <f>R17/L17</f>
+        <f t="shared" si="7"/>
         <v>1.672401209467209E-2</v>
       </c>
       <c r="K62">
-        <f>N17/I17</f>
+        <f t="shared" si="8"/>
         <v>1.9644435713584126E-4</v>
       </c>
       <c r="L62">
-        <f>I17/K17</f>
+        <f t="shared" si="9"/>
         <v>3.3428552666141318</v>
       </c>
       <c r="M62">
-        <f>(H17+I17-J17-K17)/(H17+I17)</f>
+        <f t="shared" si="10"/>
         <v>0.7883528003632011</v>
       </c>
       <c r="N62">
-        <f>N17/H17*100</f>
+        <f t="shared" si="11"/>
         <v>4.5909466531998899E-2</v>
       </c>
       <c r="AC62" s="4"/>
@@ -5980,27 +5983,27 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <f>(I18-K18)/(H18+I18)</f>
+        <f t="shared" si="0"/>
         <v>-1.4500794999725861</v>
       </c>
       <c r="D63">
-        <f>K18/I18</f>
+        <f t="shared" si="1"/>
         <v>3.0073621494440439</v>
       </c>
       <c r="E63">
-        <f>IF((J18+K18)&gt;(H18+I18),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F63">
-        <f>N18/(H18+I18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G63">
-        <f>IF(AND(N18&lt;0, O18&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H63">
-        <f>(N18-O18)/(ABS(N18)+ABS(O18))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="I63">
@@ -6008,23 +6011,23 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <f>R18/L18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K63">
-        <f>N18/I18</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L63">
-        <f>I18/K18</f>
+        <f t="shared" si="9"/>
         <v>0.33251731926760636</v>
       </c>
       <c r="M63">
-        <f>(H18+I18-J18-K18)/(H18+I18)</f>
+        <f t="shared" si="10"/>
         <v>-1.1724601129447887</v>
       </c>
       <c r="N63">
-        <f>N18/H18*100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC63" s="4"/>
@@ -6101,51 +6104,51 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <f>(I19-K19)/(H19+I19)</f>
+        <f t="shared" si="0"/>
         <v>0.37541671147435207</v>
       </c>
       <c r="D64">
-        <f>K19/I19</f>
+        <f t="shared" si="1"/>
         <v>0.56574200771240202</v>
       </c>
       <c r="E64">
-        <f>IF((J19+K19)&gt;(H19+I19),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F64">
-        <f>N19/(H19+I19)</f>
+        <f t="shared" si="3"/>
         <v>-0.1464673620819443</v>
       </c>
       <c r="G64">
-        <f>IF(AND(N19&lt;0, O19&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H64">
-        <f>(N19-O19)/(ABS(N19)+ABS(O19))</f>
+        <f t="shared" si="5"/>
         <v>-0.41580041580041582</v>
       </c>
       <c r="I64">
-        <f>Q19/R19</f>
+        <f t="shared" ref="I64:I69" si="12">Q19/R19</f>
         <v>0</v>
       </c>
       <c r="J64">
-        <f>R19/L19</f>
+        <f t="shared" si="7"/>
         <v>1.4003421727972627</v>
       </c>
       <c r="K64">
-        <f>N19/I19</f>
+        <f t="shared" si="8"/>
         <v>-0.16942405771862171</v>
       </c>
       <c r="L64">
-        <f>I19/K19</f>
+        <f t="shared" si="9"/>
         <v>1.7675901495162709</v>
       </c>
       <c r="M64">
-        <f>(H19+I19-J19-K19)/(H19+I19)</f>
+        <f t="shared" si="10"/>
         <v>0.51091515216689964</v>
       </c>
       <c r="N64">
-        <f>N19/H19*100</f>
+        <f t="shared" si="11"/>
         <v>-108.09523809523809</v>
       </c>
       <c r="AC64" s="4"/>
@@ -6222,51 +6225,51 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <f>(I20-K20)/(H20+I20)</f>
+        <f t="shared" si="0"/>
         <v>-1.8255558001320713</v>
       </c>
       <c r="D65">
-        <f>K20/I20</f>
+        <f t="shared" si="1"/>
         <v>22.391539850399795</v>
       </c>
       <c r="E65">
-        <f>IF((J20+K20)&gt;(H20+I20),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F65">
-        <f>N20/(H20+I20)</f>
+        <f t="shared" si="3"/>
         <v>-6.1501210653753025E-2</v>
       </c>
       <c r="G65">
-        <f>IF(AND(N20&lt;0, O20&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H65">
-        <f>(N20-O20)/(ABS(N20)+ABS(O20))</f>
+        <f t="shared" si="5"/>
         <v>0.46922492401215804</v>
       </c>
       <c r="I65">
-        <f>Q20/R20</f>
+        <f t="shared" si="12"/>
         <v>3.2301196340605208E-2</v>
       </c>
       <c r="J65">
-        <f>R20/L20</f>
+        <f t="shared" si="7"/>
         <v>72.315521628498729</v>
       </c>
       <c r="K65">
-        <f>N20/I20</f>
+        <f t="shared" si="8"/>
         <v>-0.72066030435904049</v>
       </c>
       <c r="L65">
-        <f>I20/K20</f>
+        <f t="shared" si="9"/>
         <v>4.465972446205594E-2</v>
       </c>
       <c r="M65">
-        <f>(H20+I20-J20-K20)/(H20+I20)</f>
+        <f t="shared" si="10"/>
         <v>-3.6005282852740481</v>
       </c>
       <c r="N65">
-        <f>N20/H20*100</f>
+        <f t="shared" si="11"/>
         <v>-6.7239429162755995</v>
       </c>
       <c r="AC65" s="4"/>
@@ -6343,51 +6346,51 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <f>(I21-K21)/(H21+I21)</f>
+        <f t="shared" si="0"/>
         <v>2.8491620111731845E-2</v>
       </c>
       <c r="D66">
-        <f>K21/I21</f>
+        <f t="shared" si="1"/>
         <v>0.96425331904015832</v>
       </c>
       <c r="E66">
-        <f>IF((J21+K21)&gt;(H21+I21),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F66">
-        <f>N21/(H21+I21)</f>
+        <f t="shared" si="3"/>
         <v>-0.14381640924526234</v>
       </c>
       <c r="G66">
-        <f>IF(AND(N21&lt;0, O21&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H66">
-        <f>(N21-O21)/(ABS(N21)+ABS(O21))</f>
+        <f t="shared" si="5"/>
         <v>-1.8581015555296947E-2</v>
       </c>
       <c r="I66">
-        <f>Q21/R21</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J66">
-        <f>R21/L21</f>
+        <f t="shared" si="7"/>
         <v>3.2328878219684682</v>
       </c>
       <c r="K66">
-        <f>N21/I21</f>
+        <f t="shared" si="8"/>
         <v>-0.18043759105027349</v>
       </c>
       <c r="L66">
-        <f>I21/K21</f>
+        <f t="shared" si="9"/>
         <v>1.0370718775388037</v>
       </c>
       <c r="M66">
-        <f>(H21+I21-J21-K21)/(H21+I21)</f>
+        <f t="shared" si="10"/>
         <v>0.2311315587687589</v>
       </c>
       <c r="N66">
-        <f>N21/H21*100</f>
+        <f t="shared" si="11"/>
         <v>-70.8603195164076</v>
       </c>
       <c r="AC66" s="4"/>
@@ -6464,51 +6467,51 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <f>(I22-K22)/(H22+I22)</f>
+        <f t="shared" si="0"/>
         <v>-0.7112593654469378</v>
       </c>
       <c r="D67">
-        <f>K22/I22</f>
+        <f t="shared" si="1"/>
         <v>2.4611303481728388</v>
       </c>
       <c r="E67">
-        <f>IF((J22+K22)&gt;(H22+I22),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F67">
-        <f>N22/(H22+I22)</f>
+        <f t="shared" si="3"/>
         <v>-0.26996291891257984</v>
       </c>
       <c r="G67">
-        <f>IF(AND(N22&lt;0, O22&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H67">
-        <f>(N22-O22)/(ABS(N22)+ABS(O22))</f>
+        <f t="shared" si="5"/>
         <v>-0.90521130892639312</v>
       </c>
       <c r="I67">
-        <f>Q22/R22</f>
+        <f t="shared" si="12"/>
         <v>2.477790291870161E-3</v>
       </c>
       <c r="J67">
-        <f>R22/L22</f>
+        <f t="shared" si="7"/>
         <v>2.3596760315292444</v>
       </c>
       <c r="K67">
-        <f>N22/I22</f>
+        <f t="shared" si="8"/>
         <v>-0.55458111747552219</v>
       </c>
       <c r="L67">
-        <f>I22/K22</f>
+        <f t="shared" si="9"/>
         <v>0.40631736581624267</v>
       </c>
       <c r="M67">
-        <f>(H22+I22-J22-K22)/(H22+I22)</f>
+        <f t="shared" si="10"/>
         <v>-0.19974164887877188</v>
       </c>
       <c r="N67">
-        <f>N22/H22*100</f>
+        <f t="shared" si="11"/>
         <v>-52.602517338462832</v>
       </c>
       <c r="AC67" s="4"/>
@@ -6585,51 +6588,51 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <f>(I23-K23)/(H23+I23)</f>
+        <f t="shared" si="0"/>
         <v>-3.0654052201518787</v>
       </c>
       <c r="D68">
-        <f>K23/I23</f>
+        <f t="shared" si="1"/>
         <v>7.0876558246167072</v>
       </c>
       <c r="E68">
-        <f>IF((J23+K23)&gt;(H23+I23),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F68">
-        <f>N23/(H23+I23)</f>
+        <f t="shared" si="3"/>
         <v>-0.22682588069770379</v>
       </c>
       <c r="G68">
-        <f>IF(AND(N23&lt;0, O23&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H68">
-        <f>(N23-O23)/(ABS(N23)+ABS(O23))</f>
+        <f t="shared" si="5"/>
         <v>-0.2212887874520468</v>
       </c>
       <c r="I68">
-        <f>Q23/R23</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J68">
-        <f>R23/L23</f>
+        <f t="shared" si="7"/>
         <v>0.8959681893841317</v>
       </c>
       <c r="K68">
-        <f>N23/I23</f>
+        <f t="shared" si="8"/>
         <v>-0.45045851841237999</v>
       </c>
       <c r="L68">
-        <f>I23/K23</f>
+        <f t="shared" si="9"/>
         <v>0.14109037243693742</v>
       </c>
       <c r="M68">
-        <f>(H23+I23-J23-K23)/(H23+I23)</f>
+        <f t="shared" si="10"/>
         <v>-2.5883764137159759</v>
       </c>
       <c r="N68">
-        <f>N23/H23*100</f>
+        <f t="shared" si="11"/>
         <v>-45.689060058859866</v>
       </c>
       <c r="AC68" s="4"/>
@@ -6706,51 +6709,51 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <f>(I24-K24)/(H24+I24)</f>
+        <f t="shared" si="0"/>
         <v>-0.85773761755894473</v>
       </c>
       <c r="D69">
-        <f>K24/I24</f>
+        <f t="shared" si="1"/>
         <v>1.95467497829182</v>
       </c>
       <c r="E69">
-        <f>IF((J24+K24)&gt;(H24+I24),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F69">
-        <f>N24/(H24+I24)</f>
+        <f t="shared" si="3"/>
         <v>-8.2949926546024635E-3</v>
       </c>
       <c r="G69">
-        <f>IF(AND(N24&lt;0, O24&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H69">
-        <f>(N24-O24)/(ABS(N24)+ABS(O24))</f>
+        <f t="shared" si="5"/>
         <v>0.3685777053362625</v>
       </c>
       <c r="I69">
-        <f>Q24/R24</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J69">
-        <f>R24/L24</f>
+        <f t="shared" si="7"/>
         <v>1.2208733357944761</v>
       </c>
       <c r="K69">
-        <f>N24/I24</f>
+        <f t="shared" si="8"/>
         <v>-9.2324526409373782E-3</v>
       </c>
       <c r="L69">
-        <f>I24/K24</f>
+        <f t="shared" si="9"/>
         <v>0.51159400468403937</v>
       </c>
       <c r="M69">
-        <f>(H24+I24-J24-K24)/(H24+I24)</f>
+        <f t="shared" si="10"/>
         <v>-0.75644933351456323</v>
       </c>
       <c r="N69">
-        <f>N24/H24*100</f>
+        <f t="shared" si="11"/>
         <v>-8.1692155352624063</v>
       </c>
       <c r="AC69" s="4"/>
@@ -6827,27 +6830,27 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <f>(I25-K25)/(H25+I25)</f>
+        <f t="shared" si="0"/>
         <v>-16.31937984496124</v>
       </c>
       <c r="D70">
-        <f>K25/I25</f>
+        <f t="shared" si="1"/>
         <v>2106.1999999999998</v>
       </c>
       <c r="E70">
-        <f>IF((J25+K25)&gt;(H25+I25),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F70">
-        <f>N25/(H25+I25)</f>
+        <f t="shared" si="3"/>
         <v>-15.334883720930232</v>
       </c>
       <c r="G70">
-        <f>IF(AND(N25&lt;0, O25&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H70">
-        <f>(N25-O25)/(ABS(N25)+ABS(O25))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="I70">
@@ -6859,19 +6862,19 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <f>N25/I25</f>
+        <f t="shared" si="8"/>
         <v>-1978.2</v>
       </c>
       <c r="L70">
-        <f>I25/K25</f>
+        <f t="shared" si="9"/>
         <v>4.7478871902003608E-4</v>
       </c>
       <c r="M70">
-        <f>(H25+I25-J25-K25)/(H25+I25)</f>
+        <f t="shared" si="10"/>
         <v>-15.327131782945736</v>
       </c>
       <c r="N70">
-        <f>N25/H25*100</f>
+        <f t="shared" si="11"/>
         <v>-1545.46875</v>
       </c>
       <c r="AC70" s="4"/>
@@ -6948,27 +6951,27 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <f>(I26-K26)/(H26+I26)</f>
+        <f t="shared" si="0"/>
         <v>-0.70040565859360226</v>
       </c>
       <c r="D71">
-        <f>K26/I26</f>
+        <f t="shared" si="1"/>
         <v>1.7780843628864405</v>
       </c>
       <c r="E71">
-        <f>IF((J26+K26)&gt;(H26+I26),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F71">
-        <f>N26/(H26+I26)</f>
+        <f t="shared" si="3"/>
         <v>-0.33994963645426884</v>
       </c>
       <c r="G71">
-        <f>IF(AND(N26&lt;0, O26&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H71">
-        <f>(N26-O26)/(ABS(N26)+ABS(O26))</f>
+        <f t="shared" si="5"/>
         <v>0.19376487314197194</v>
       </c>
       <c r="I71">
@@ -6976,23 +6979,23 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <f>R26/L26</f>
+        <f t="shared" ref="J71:J92" si="13">R26/L26</f>
         <v>0</v>
       </c>
       <c r="K71">
-        <f>N26/I26</f>
+        <f t="shared" si="8"/>
         <v>-0.37765185510511945</v>
       </c>
       <c r="L71">
-        <f>I26/K26</f>
+        <f t="shared" si="9"/>
         <v>0.56240301128156667</v>
       </c>
       <c r="M71">
-        <f>(H26+I26-J26-K26)/(H26+I26)</f>
+        <f t="shared" si="10"/>
         <v>-0.600739983154855</v>
       </c>
       <c r="N71">
-        <f>N26/H26*100</f>
+        <f t="shared" si="11"/>
         <v>-340.51738980716254</v>
       </c>
       <c r="AC71" s="4"/>
@@ -7069,51 +7072,51 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <f>(I27-K27)/(H27+I27)</f>
+        <f t="shared" si="0"/>
         <v>-0.27259111199946701</v>
       </c>
       <c r="D72">
-        <f>K27/I27</f>
+        <f t="shared" si="1"/>
         <v>1.3653642819380742</v>
       </c>
       <c r="E72">
-        <f>IF((J27+K27)&gt;(H27+I27),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F72">
-        <f>N27/(H27+I27)</f>
+        <f t="shared" si="3"/>
         <v>-1.4665867146378839E-2</v>
       </c>
       <c r="G72">
-        <f>IF(AND(N27&lt;0, O27&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H72">
-        <f>(N27-O27)/(ABS(N27)+ABS(O27))</f>
+        <f t="shared" si="5"/>
         <v>-0.69011056511056512</v>
       </c>
       <c r="I72">
-        <f>Q27/R27</f>
+        <f t="shared" ref="I72:I92" si="14">Q27/R27</f>
         <v>0</v>
       </c>
       <c r="J72">
-        <f>R27/L27</f>
+        <f t="shared" si="13"/>
         <v>5.649991549771844</v>
       </c>
       <c r="K72">
-        <f>N27/I27</f>
+        <f t="shared" si="8"/>
         <v>-1.9657222055524597E-2</v>
       </c>
       <c r="L72">
-        <f>I27/K27</f>
+        <f t="shared" si="9"/>
         <v>0.73240527325099225</v>
       </c>
       <c r="M72">
-        <f>(H27+I27-J27-K27)/(H27+I27)</f>
+        <f t="shared" si="10"/>
         <v>-1.8671463788393631E-2</v>
       </c>
       <c r="N72">
-        <f>N27/H27*100</f>
+        <f t="shared" si="11"/>
         <v>-5.7757905895441715</v>
       </c>
       <c r="AC72" s="4"/>
@@ -7190,51 +7193,51 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <f>(I28-K28)/(H28+I28)</f>
+        <f t="shared" si="0"/>
         <v>0.11917677330414858</v>
       </c>
       <c r="D73">
-        <f>K28/I28</f>
+        <f t="shared" si="1"/>
         <v>0.51046196036563762</v>
       </c>
       <c r="E73">
-        <f>IF((J28+K28)&gt;(H28+I28),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F73">
-        <f>N28/(H28+I28)</f>
+        <f t="shared" si="3"/>
         <v>5.9298940667093444E-2</v>
       </c>
       <c r="G73">
-        <f>IF(AND(N28&lt;0, O28&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H73">
-        <f>(N28-O28)/(ABS(N28)+ABS(O28))</f>
+        <f t="shared" si="5"/>
         <v>0.80589388740391221</v>
       </c>
       <c r="I73">
-        <f>Q28/R28</f>
+        <f t="shared" si="14"/>
         <v>1.9469166611086702E-2</v>
       </c>
       <c r="J73">
-        <f>R28/L28</f>
+        <f t="shared" si="13"/>
         <v>2.4423907777186367</v>
       </c>
       <c r="K73">
-        <f>N28/I28</f>
+        <f t="shared" si="8"/>
         <v>0.24358007321173869</v>
       </c>
       <c r="L73">
-        <f>I28/K28</f>
+        <f t="shared" si="9"/>
         <v>1.9590098335314003</v>
       </c>
       <c r="M73">
-        <f>(H28+I28-J28-K28)/(H28+I28)</f>
+        <f t="shared" si="10"/>
         <v>0.70330119434483362</v>
       </c>
       <c r="N73">
-        <f>N28/H28*100</f>
+        <f t="shared" si="11"/>
         <v>7.8380462012679759</v>
       </c>
       <c r="AC73" s="4"/>
@@ -7311,51 +7314,51 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <f>(I29-K29)/(H29+I29)</f>
+        <f t="shared" si="0"/>
         <v>-0.18427983085436248</v>
       </c>
       <c r="D74">
-        <f>K29/I29</f>
+        <f t="shared" si="1"/>
         <v>1.4338617033955805</v>
       </c>
       <c r="E74">
-        <f>IF((J29+K29)&gt;(H29+I29),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F74">
-        <f>N29/(H29+I29)</f>
+        <f t="shared" si="3"/>
         <v>2.2815570285837192E-3</v>
       </c>
       <c r="G74">
-        <f>IF(AND(N29&lt;0, O29&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H74">
-        <f>(N29-O29)/(ABS(N29)+ABS(O29))</f>
+        <f t="shared" si="5"/>
         <v>0.17474170268551328</v>
       </c>
       <c r="I74">
-        <f>Q29/R29</f>
+        <f t="shared" si="14"/>
         <v>0.6917173243964565</v>
       </c>
       <c r="J74">
-        <f>R29/L29</f>
+        <f t="shared" si="13"/>
         <v>3.3875052550316234</v>
       </c>
       <c r="K74">
-        <f>N29/I29</f>
+        <f t="shared" si="8"/>
         <v>5.37161453983426E-3</v>
       </c>
       <c r="L74">
-        <f>I29/K29</f>
+        <f t="shared" si="9"/>
         <v>0.69741732946201385</v>
       </c>
       <c r="M74">
-        <f>(H29+I29-J29-K29)/(H29+I29)</f>
+        <f t="shared" si="10"/>
         <v>0.20394322580983451</v>
       </c>
       <c r="N74">
-        <f>N29/H29*100</f>
+        <f t="shared" si="11"/>
         <v>0.39661543073486416</v>
       </c>
       <c r="AC74" s="4"/>
@@ -7432,51 +7435,51 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <f>(I30-K30)/(H30+I30)</f>
+        <f t="shared" si="0"/>
         <v>-0.14823935331111696</v>
       </c>
       <c r="D75">
-        <f>K30/I30</f>
+        <f t="shared" si="1"/>
         <v>1.4552227973183816</v>
       </c>
       <c r="E75">
-        <f>IF((J30+K30)&gt;(H30+I30),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F75">
-        <f>N30/(H30+I30)</f>
+        <f t="shared" si="3"/>
         <v>2.2143865020685324E-2</v>
       </c>
       <c r="G75">
-        <f>IF(AND(N30&lt;0, O30&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H75">
-        <f>(N30-O30)/(ABS(N30)+ABS(O30))</f>
+        <f t="shared" si="5"/>
         <v>-0.10885482572495286</v>
       </c>
       <c r="I75">
-        <f>Q30/R30</f>
+        <f t="shared" si="14"/>
         <v>1.1338684507662778E-2</v>
       </c>
       <c r="J75">
-        <f>R30/L30</f>
+        <f t="shared" si="13"/>
         <v>21.362246662077094</v>
       </c>
       <c r="K75">
-        <f>N30/I30</f>
+        <f t="shared" si="8"/>
         <v>6.8000783550376392E-2</v>
       </c>
       <c r="L75">
-        <f>I30/K30</f>
+        <f t="shared" si="9"/>
         <v>0.68717999872098934</v>
       </c>
       <c r="M75">
-        <f>(H30+I30-J30-K30)/(H30+I30)</f>
+        <f t="shared" si="10"/>
         <v>0.26812490499839275</v>
       </c>
       <c r="N75">
-        <f>N30/H30*100</f>
+        <f t="shared" si="11"/>
         <v>3.2836924514790726</v>
       </c>
       <c r="AC75" s="4"/>
@@ -7553,51 +7556,51 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <f>(I31-K31)/(H31+I31)</f>
+        <f t="shared" si="0"/>
         <v>0.16824837723512406</v>
       </c>
       <c r="D76">
-        <f>K31/I31</f>
+        <f t="shared" si="1"/>
         <v>0.69412037910822599</v>
       </c>
       <c r="E76">
-        <f>IF((J31+K31)&gt;(H31+I31),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F76">
-        <f>N31/(H31+I31)</f>
+        <f t="shared" si="3"/>
         <v>8.9072115498296835E-3</v>
       </c>
       <c r="G76">
-        <f>IF(AND(N31&lt;0, O31&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H76">
-        <f>(N31-O31)/(ABS(N31)+ABS(O31))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I76">
-        <f>Q31/R31</f>
+        <f t="shared" si="14"/>
         <v>3.4812495218993239E-2</v>
       </c>
       <c r="J76">
-        <f>R31/L31</f>
+        <f t="shared" si="13"/>
         <v>4.3981334112981729</v>
       </c>
       <c r="K76">
-        <f>N31/I31</f>
+        <f t="shared" si="8"/>
         <v>1.6193526123923604E-2</v>
       </c>
       <c r="L76">
-        <f>I31/K31</f>
+        <f t="shared" si="9"/>
         <v>1.4406722956106752</v>
       </c>
       <c r="M76">
-        <f>(H31+I31-J31-K31)/(H31+I31)</f>
+        <f t="shared" si="10"/>
         <v>0.31034657090630069</v>
       </c>
       <c r="N76">
-        <f>N31/H31*100</f>
+        <f t="shared" si="11"/>
         <v>1.9795901131734721</v>
       </c>
       <c r="AC76" s="4"/>
@@ -7674,51 +7677,51 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <f>(I32-K32)/(H32+I32)</f>
+        <f t="shared" si="0"/>
         <v>0.11174301988440118</v>
       </c>
       <c r="D77">
-        <f>K32/I32</f>
+        <f t="shared" si="1"/>
         <v>0.69984706253666173</v>
       </c>
       <c r="E77">
-        <f>IF((J32+K32)&gt;(H32+I32),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F77">
-        <f>N32/(H32+I32)</f>
+        <f t="shared" si="3"/>
         <v>3.7435581494014263E-2</v>
       </c>
       <c r="G77">
-        <f>IF(AND(N32&lt;0, O32&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H77">
-        <f>(N32-O32)/(ABS(N32)+ABS(O32))</f>
+        <f t="shared" si="5"/>
         <v>0.53657928330891569</v>
       </c>
       <c r="I77">
-        <f>Q32/R32</f>
+        <f t="shared" si="14"/>
         <v>6.4844389170254396E-2</v>
       </c>
       <c r="J77">
-        <f>R32/L32</f>
+        <f t="shared" si="13"/>
         <v>2.6257591386631884</v>
       </c>
       <c r="K77">
-        <f>N32/I32</f>
+        <f t="shared" si="8"/>
         <v>0.10055571938811649</v>
       </c>
       <c r="L77">
-        <f>I32/K32</f>
+        <f t="shared" si="9"/>
         <v>1.4288836140504835</v>
       </c>
       <c r="M77">
-        <f>(H32+I32-J32-K32)/(H32+I32)</f>
+        <f t="shared" si="10"/>
         <v>0.1646370033661749</v>
       </c>
       <c r="N77">
-        <f>N32/H32*100</f>
+        <f t="shared" si="11"/>
         <v>5.9638048227312206</v>
       </c>
       <c r="AC77" s="4"/>
@@ -7795,51 +7798,51 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <f>(I33-K33)/(H33+I33)</f>
+        <f t="shared" si="0"/>
         <v>-6.3880652212675748E-2</v>
       </c>
       <c r="D78">
-        <f>K33/I33</f>
+        <f t="shared" si="1"/>
         <v>1.1656931430822728</v>
       </c>
       <c r="E78">
-        <f>IF((J33+K33)&gt;(H33+I33),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F78">
-        <f>N33/(H33+I33)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G78">
-        <f>IF(AND(N33&lt;0, O33&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H78">
-        <f>(N33-O33)/(ABS(N33)+ABS(O33))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I78">
-        <f>Q33/R33</f>
+        <f t="shared" si="14"/>
         <v>2.2023970689542899E-2</v>
       </c>
       <c r="J78">
-        <f>R33/L33</f>
+        <f t="shared" si="13"/>
         <v>8.6883747245548211</v>
       </c>
       <c r="K78">
-        <f>N33/I33</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L78">
-        <f>I33/K33</f>
+        <f t="shared" si="9"/>
         <v>0.85785869629107159</v>
       </c>
       <c r="M78">
-        <f>(H33+I33-J33-K33)/(H33+I33)</f>
+        <f t="shared" si="10"/>
         <v>2.5557544098320597E-3</v>
       </c>
       <c r="N78">
-        <f>N33/H33*100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC78" s="4"/>
@@ -7916,51 +7919,51 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <f>(I34-K34)/(H34+I34)</f>
+        <f t="shared" si="0"/>
         <v>0.72364513566696154</v>
       </c>
       <c r="D79">
-        <f>K34/I34</f>
+        <f t="shared" si="1"/>
         <v>0.19826241312065604</v>
       </c>
       <c r="E79">
-        <f>IF((J34+K34)&gt;(H34+I34),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F79">
-        <f>N34/(H34+I34)</f>
+        <f t="shared" si="3"/>
         <v>-9.5973317928258084E-2</v>
       </c>
       <c r="G79">
-        <f>IF(AND(N34&lt;0, O34&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H79">
-        <f>(N34-O34)/(ABS(N34)+ABS(O34))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="I79">
-        <f>Q34/R34</f>
+        <f t="shared" si="14"/>
         <v>4.9376513725696031E-3</v>
       </c>
       <c r="J79">
-        <f>R34/L34</f>
+        <f t="shared" si="13"/>
         <v>2.5121119650391801</v>
       </c>
       <c r="K79">
-        <f>N34/I34</f>
+        <f t="shared" si="8"/>
         <v>-0.10633031651582579</v>
       </c>
       <c r="L79">
-        <f>I34/K34</f>
+        <f t="shared" si="9"/>
         <v>5.0438203805752764</v>
       </c>
       <c r="M79">
-        <f>(H34+I34-J34-K34)/(H34+I34)</f>
+        <f t="shared" si="10"/>
         <v>0.82104913978300509</v>
       </c>
       <c r="N79">
-        <f>N34/H34*100</f>
+        <f t="shared" si="11"/>
         <v>-98.53118339356871</v>
       </c>
       <c r="AC79" s="4"/>
@@ -8037,51 +8040,51 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <f>(I35-K35)/(H35+I35)</f>
+        <f t="shared" si="0"/>
         <v>0.70191670126602679</v>
       </c>
       <c r="D80">
-        <f>K35/I35</f>
+        <f t="shared" si="1"/>
         <v>0.27235128905517253</v>
       </c>
       <c r="E80">
-        <f>IF((J35+K35)&gt;(H35+I35),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F80">
-        <f>N35/(H35+I35)</f>
+        <f t="shared" si="3"/>
         <v>0.27955952432593217</v>
       </c>
       <c r="G80">
-        <f>IF(AND(N35&lt;0, O35&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H80">
-        <f>(N35-O35)/(ABS(N35)+ABS(O35))</f>
+        <f t="shared" si="5"/>
         <v>0.16124349077317904</v>
       </c>
       <c r="I80">
-        <f>Q35/R35</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J80">
-        <f>R35/L35</f>
+        <f t="shared" si="13"/>
         <v>1.9277667388537876</v>
       </c>
       <c r="K80">
-        <f>N35/I35</f>
+        <f t="shared" si="8"/>
         <v>0.28980807429315886</v>
       </c>
       <c r="L80">
-        <f>I35/K35</f>
+        <f t="shared" si="9"/>
         <v>3.6717285365865164</v>
       </c>
       <c r="M80">
-        <f>(H35+I35-J35-K35)/(H35+I35)</f>
+        <f t="shared" si="10"/>
         <v>0.73506639978682664</v>
       </c>
       <c r="N80">
-        <f>N35/H35*100</f>
+        <f t="shared" si="11"/>
         <v>790.53727263168958</v>
       </c>
       <c r="AC80" s="4"/>
@@ -8158,51 +8161,51 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <f>(I36-K36)/(H36+I36)</f>
+        <f t="shared" si="0"/>
         <v>-0.21756730086125708</v>
       </c>
       <c r="D81">
-        <f>K36/I36</f>
+        <f t="shared" si="1"/>
         <v>34.248367995799669</v>
       </c>
       <c r="E81">
-        <f>IF((J36+K36)&gt;(H36+I36),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F81">
-        <f>N36/(H36+I36)</f>
+        <f t="shared" si="3"/>
         <v>0.47276215736867078</v>
       </c>
       <c r="G81">
-        <f>IF(AND(N36&lt;0, O36&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H81">
-        <f>(N36-O36)/(ABS(N36)+ABS(O36))</f>
+        <f t="shared" si="5"/>
         <v>0.68721651144689877</v>
       </c>
       <c r="I81">
-        <f>Q36/R36</f>
+        <f t="shared" si="14"/>
         <v>3.2265423225340879E-2</v>
       </c>
       <c r="J81">
-        <f>R36/L36</f>
+        <f t="shared" si="13"/>
         <v>133.19650605746642</v>
       </c>
       <c r="K81">
-        <f>N36/I36</f>
+        <f t="shared" si="8"/>
         <v>72.246932882186513</v>
       </c>
       <c r="L81">
-        <f>I36/K36</f>
+        <f t="shared" si="9"/>
         <v>2.9198471592066615E-2</v>
       </c>
       <c r="M81">
-        <f>(H36+I36-J36-K36)/(H36+I36)</f>
+        <f t="shared" si="10"/>
         <v>0.46793452140316077</v>
       </c>
       <c r="N81">
-        <f>N36/H36*100</f>
+        <f t="shared" si="11"/>
         <v>47.587614747378524</v>
       </c>
       <c r="AC81" s="4"/>
@@ -8279,51 +8282,51 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <f>(I37-K37)/(H37+I37)</f>
+        <f t="shared" si="0"/>
         <v>0.22756395796002213</v>
       </c>
       <c r="D82">
-        <f>K37/I37</f>
+        <f t="shared" si="1"/>
         <v>0.23416655892704288</v>
       </c>
       <c r="E82">
-        <f>IF((J37+K37)&gt;(H37+I37),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F82">
-        <f>N37/(H37+I37)</f>
+        <f t="shared" si="3"/>
         <v>7.3654274512983259E-2</v>
       </c>
       <c r="G82">
-        <f>IF(AND(N37&lt;0, O37&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H82">
-        <f>(N37-O37)/(ABS(N37)+ABS(O37))</f>
+        <f t="shared" si="5"/>
         <v>0.57494809785913925</v>
       </c>
       <c r="I82">
-        <f>Q37/R37</f>
+        <f t="shared" si="14"/>
         <v>1.2952841452498339E-2</v>
       </c>
       <c r="J82">
-        <f>R37/L37</f>
+        <f t="shared" si="13"/>
         <v>12.587518526554074</v>
       </c>
       <c r="K82">
-        <f>N37/I37</f>
+        <f t="shared" si="8"/>
         <v>0.24787276072039316</v>
       </c>
       <c r="L82">
-        <f>I37/K37</f>
+        <f t="shared" si="9"/>
         <v>4.2704645982843381</v>
       </c>
       <c r="M82">
-        <f>(H37+I37-J37-K37)/(H37+I37)</f>
+        <f t="shared" si="10"/>
         <v>0.88669324218571477</v>
       </c>
       <c r="N82">
-        <f>N37/H37*100</f>
+        <f t="shared" si="11"/>
         <v>10.4793060483006</v>
       </c>
       <c r="AC82" s="4"/>
@@ -8400,51 +8403,51 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <f>(I38-K38)/(H38+I38)</f>
+        <f t="shared" si="0"/>
         <v>0.38477365594511859</v>
       </c>
       <c r="D83">
-        <f>K38/I38</f>
+        <f t="shared" si="1"/>
         <v>0.60831794827010532</v>
       </c>
       <c r="E83">
-        <f>IF((J38+K38)&gt;(H38+I38),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F83">
-        <f>N38/(H38+I38)</f>
+        <f t="shared" si="3"/>
         <v>6.4808064078856172E-3</v>
       </c>
       <c r="G83">
-        <f>IF(AND(N38&lt;0, O38&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H83">
-        <f>(N38-O38)/(ABS(N38)+ABS(O38))</f>
+        <f t="shared" si="5"/>
         <v>4.8396646826015147E-2</v>
       </c>
       <c r="I83">
-        <f>Q38/R38</f>
+        <f t="shared" si="14"/>
         <v>3.4415632406462428E-2</v>
       </c>
       <c r="J83">
-        <f>R38/L38</f>
+        <f t="shared" si="13"/>
         <v>1.5085796428223393</v>
       </c>
       <c r="K83">
-        <f>N38/I38</f>
+        <f t="shared" si="8"/>
         <v>6.5971656621599609E-3</v>
       </c>
       <c r="L83">
-        <f>I38/K38</f>
+        <f t="shared" si="9"/>
         <v>1.6438771909389398</v>
       </c>
       <c r="M83">
-        <f>(H38+I38-J38-K38)/(H38+I38)</f>
+        <f t="shared" si="10"/>
         <v>3.4696580544018897E-2</v>
       </c>
       <c r="N83">
-        <f>N38/H38*100</f>
+        <f t="shared" si="11"/>
         <v>36.743921885580725</v>
       </c>
       <c r="AC83" s="4"/>
@@ -8521,51 +8524,51 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <f>(I39-K39)/(H39+I39)</f>
+        <f t="shared" si="0"/>
         <v>-5.9796970400004527E-2</v>
       </c>
       <c r="D84">
-        <f>K39/I39</f>
+        <f t="shared" si="1"/>
         <v>1.6191229457773091</v>
       </c>
       <c r="E84">
-        <f>IF((J39+K39)&gt;(H39+I39),1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F84">
-        <f>N39/(H39+I39)</f>
+        <f t="shared" si="3"/>
         <v>-0.45871505123837869</v>
       </c>
       <c r="G84">
-        <f>IF(AND(N39&lt;0, O39&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H84">
-        <f>(N39-O39)/(ABS(N39)+ABS(O39))</f>
+        <f t="shared" si="5"/>
         <v>-0.25798016790552597</v>
       </c>
       <c r="I84">
-        <f>Q39/R39</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J84">
-        <f>R39/L39</f>
+        <f t="shared" si="13"/>
         <v>2.7237844171060339</v>
       </c>
       <c r="K84">
-        <f>N39/I39</f>
+        <f t="shared" si="8"/>
         <v>-4.749421448867797</v>
       </c>
       <c r="L84">
-        <f>I39/K39</f>
+        <f t="shared" si="9"/>
         <v>0.61761832392531479</v>
       </c>
       <c r="M84">
-        <f>(H39+I39-J39-K39)/(H39+I39)</f>
+        <f t="shared" si="10"/>
         <v>-0.89129881226552288</v>
       </c>
       <c r="N84">
-        <f>N39/H39*100</f>
+        <f t="shared" si="11"/>
         <v>-50.775581020265633</v>
       </c>
       <c r="AC84" s="4"/>
@@ -8642,51 +8645,51 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <f>(I40-K40)/(H40+I40)</f>
+        <f t="shared" si="0"/>
         <v>0.7973517357340526</v>
       </c>
       <c r="D85">
-        <f>K40/I40</f>
+        <f t="shared" si="1"/>
         <v>0.17253162716300713</v>
       </c>
       <c r="E85">
-        <f>IF((J40+K40)&gt;(H40+I40),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F85">
-        <f>N40/(H40+I40)</f>
+        <f t="shared" si="3"/>
         <v>0.28742074473674994</v>
       </c>
       <c r="G85">
-        <f>IF(AND(N40&lt;0, O40&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H85">
-        <f>(N40-O40)/(ABS(N40)+ABS(O40))</f>
+        <f t="shared" si="5"/>
         <v>0.17222658761340096</v>
       </c>
       <c r="I85">
-        <f>Q40/R40</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J85">
-        <f>R40/L40</f>
+        <f t="shared" si="13"/>
         <v>23.371420306624241</v>
       </c>
       <c r="K85">
-        <f>N40/I40</f>
+        <f t="shared" si="8"/>
         <v>0.2982768649120256</v>
       </c>
       <c r="L85">
-        <f>I40/K40</f>
+        <f t="shared" si="9"/>
         <v>5.7960387694900968</v>
       </c>
       <c r="M85">
-        <f>(H40+I40-J40-K40)/(H40+I40)</f>
+        <f t="shared" si="10"/>
         <v>0.83273198584789998</v>
       </c>
       <c r="N85">
-        <f>N40/H40*100</f>
+        <f t="shared" si="11"/>
         <v>789.70163618864285</v>
       </c>
       <c r="AC85" s="4"/>
@@ -8763,51 +8766,51 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <f>(I41-K41)/(H41+I41)</f>
+        <f t="shared" si="0"/>
         <v>0.40267551445413152</v>
       </c>
       <c r="D86">
-        <f>K41/I41</f>
+        <f t="shared" si="1"/>
         <v>0.39239872601966364</v>
       </c>
       <c r="E86">
-        <f>IF((J41+K41)&gt;(H41+I41),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F86">
-        <f>N41/(H41+I41)</f>
+        <f t="shared" si="3"/>
         <v>0.37607567682044402</v>
       </c>
       <c r="G86">
-        <f>IF(AND(N41&lt;0, O41&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H86">
-        <f>(N41-O41)/(ABS(N41)+ABS(O41))</f>
+        <f t="shared" si="5"/>
         <v>0.59230642774946574</v>
       </c>
       <c r="I86">
-        <f>Q41/R41</f>
+        <f t="shared" si="14"/>
         <v>5.1045294970355256E-3</v>
       </c>
       <c r="J86">
-        <f>R41/L41</f>
+        <f t="shared" si="13"/>
         <v>5.7892810977428653</v>
       </c>
       <c r="K86">
-        <f>N41/I41</f>
+        <f t="shared" si="8"/>
         <v>0.56746450217833599</v>
       </c>
       <c r="L86">
-        <f>I41/K41</f>
+        <f t="shared" si="9"/>
         <v>2.5484282534339542</v>
       </c>
       <c r="M86">
-        <f>(H41+I41-J41-K41)/(H41+I41)</f>
+        <f t="shared" si="10"/>
         <v>0.69829515371854156</v>
       </c>
       <c r="N86">
-        <f>N41/H41*100</f>
+        <f t="shared" si="11"/>
         <v>111.50577695914265</v>
       </c>
       <c r="AC86" s="4"/>
@@ -8884,51 +8887,51 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <f>(I42-K42)/(H42+I42)</f>
+        <f t="shared" si="0"/>
         <v>3.1591039632395172E-2</v>
       </c>
       <c r="D87">
-        <f>K42/I42</f>
+        <f t="shared" si="1"/>
         <v>0.96380785259925428</v>
       </c>
       <c r="E87">
-        <f>IF((J42+K42)&gt;(H42+I42),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F87">
-        <f>N42/(H42+I42)</f>
+        <f t="shared" si="3"/>
         <v>9.7262109898525753E-2</v>
       </c>
       <c r="G87">
-        <f>IF(AND(N42&lt;0, O42&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H87">
-        <f>(N42-O42)/(ABS(N42)+ABS(O42))</f>
+        <f t="shared" si="5"/>
         <v>0.30759330759330761</v>
       </c>
       <c r="I87">
-        <f>Q42/R42</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J87">
-        <f>R42/L42</f>
+        <f t="shared" si="13"/>
         <v>16.69033530571992</v>
       </c>
       <c r="K87">
-        <f>N42/I42</f>
+        <f t="shared" si="8"/>
         <v>0.11142794472472034</v>
       </c>
       <c r="L87">
-        <f>I42/K42</f>
+        <f t="shared" si="9"/>
         <v>1.0375512061902594</v>
       </c>
       <c r="M87">
-        <f>(H42+I42-J42-K42)/(H42+I42)</f>
+        <f t="shared" si="10"/>
         <v>0.15872104154700364</v>
       </c>
       <c r="N87">
-        <f>N42/H42*100</f>
+        <f t="shared" si="11"/>
         <v>76.506024096385545</v>
       </c>
       <c r="AC87" s="4"/>
@@ -9005,51 +9008,51 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <f>(I43-K43)/(H43+I43)</f>
+        <f t="shared" si="0"/>
         <v>-5.7991605505168964E-2</v>
       </c>
       <c r="D88">
-        <f>K43/I43</f>
+        <f t="shared" si="1"/>
         <v>2.6047109150989001</v>
       </c>
       <c r="E88">
-        <f>IF((J43+K43)&gt;(H43+I43),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F88">
-        <f>N43/(H43+I43)</f>
+        <f t="shared" si="3"/>
         <v>-1.0868475319184884E-2</v>
       </c>
       <c r="G88">
-        <f>IF(AND(N43&lt;0, O43&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H88">
-        <f>(N43-O43)/(ABS(N43)+ABS(O43))</f>
+        <f t="shared" si="5"/>
         <v>0.57727194456208608</v>
       </c>
       <c r="I88">
-        <f>Q43/R43</f>
+        <f t="shared" si="14"/>
         <v>0.35171341888633562</v>
       </c>
       <c r="J88">
-        <f>R43/L43</f>
+        <f t="shared" si="13"/>
         <v>28.155991885234023</v>
       </c>
       <c r="K88">
-        <f>N43/I43</f>
+        <f t="shared" si="8"/>
         <v>-0.30074630324943213</v>
       </c>
       <c r="L88">
-        <f>I43/K43</f>
+        <f t="shared" si="9"/>
         <v>0.3839197640717954</v>
       </c>
       <c r="M88">
-        <f>(H43+I43-J43-K43)/(H43+I43)</f>
+        <f t="shared" si="10"/>
         <v>0.13515285049791909</v>
       </c>
       <c r="N88">
-        <f>N43/H43*100</f>
+        <f t="shared" si="11"/>
         <v>-1.1275970285623484</v>
       </c>
       <c r="AC88" s="4"/>
@@ -9126,51 +9129,51 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <f>(I44-K44)/(H44+I44)</f>
+        <f t="shared" si="0"/>
         <v>-0.1798869940274869</v>
       </c>
       <c r="D89">
-        <f>K44/I44</f>
+        <f t="shared" si="1"/>
         <v>1.3642171437678747</v>
       </c>
       <c r="E89">
-        <f>IF((J44+K44)&gt;(H44+I44),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F89">
-        <f>N44/(H44+I44)</f>
+        <f t="shared" si="3"/>
         <v>0.21518679781251002</v>
       </c>
       <c r="G89">
-        <f>IF(AND(N44&lt;0, O44&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H89">
-        <f>(N44-O44)/(ABS(N44)+ABS(O44))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I89">
-        <f>Q44/R44</f>
+        <f t="shared" si="14"/>
         <v>1.8292166806523404</v>
       </c>
       <c r="J89">
-        <f>R44/L44</f>
+        <f t="shared" si="13"/>
         <v>1.9817013103492903E-2</v>
       </c>
       <c r="K89">
-        <f>N44/I44</f>
+        <f t="shared" si="8"/>
         <v>0.43568864608328389</v>
       </c>
       <c r="L89">
-        <f>I44/K44</f>
+        <f t="shared" si="9"/>
         <v>0.73302113565151972</v>
       </c>
       <c r="M89">
-        <f>(H44+I44-J44-K44)/(H44+I44)</f>
+        <f t="shared" si="10"/>
         <v>0.32621260313443673</v>
       </c>
       <c r="N89">
-        <f>N44/H44*100</f>
+        <f t="shared" si="11"/>
         <v>42.518666092449436</v>
       </c>
       <c r="AC89" s="4"/>
@@ -9247,51 +9250,51 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <f>(I45-K45)/(H45+I45)</f>
+        <f t="shared" si="0"/>
         <v>0.23243415656611682</v>
       </c>
       <c r="D90">
-        <f>K45/I45</f>
+        <f t="shared" si="1"/>
         <v>0.75634105564843568</v>
       </c>
       <c r="E90">
-        <f>IF((J45+K45)&gt;(H45+I45),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F90">
-        <f>N45/(H45+I45)</f>
+        <f t="shared" si="3"/>
         <v>1.0571402533491297E-2</v>
       </c>
       <c r="G90">
-        <f>IF(AND(N45&lt;0, O45&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H90">
-        <f>(N45-O45)/(ABS(N45)+ABS(O45))</f>
+        <f t="shared" si="5"/>
         <v>-0.70408163265306123</v>
       </c>
       <c r="I90">
-        <f>Q45/R45</f>
+        <f t="shared" si="14"/>
         <v>5.0606052568761108E-3</v>
       </c>
       <c r="J90">
-        <f>R45/L45</f>
+        <f t="shared" si="13"/>
         <v>11.900448204027523</v>
       </c>
       <c r="K90">
-        <f>N45/I45</f>
+        <f t="shared" si="8"/>
         <v>1.1081920229281108E-2</v>
       </c>
       <c r="L90">
-        <f>I45/K45</f>
+        <f t="shared" si="9"/>
         <v>1.3221548566376153</v>
       </c>
       <c r="M90">
-        <f>(H45+I45-J45-K45)/(H45+I45)</f>
+        <f t="shared" si="10"/>
         <v>0.27850177708921897</v>
       </c>
       <c r="N90">
-        <f>N45/H45*100</f>
+        <f t="shared" si="11"/>
         <v>22.947576656775471</v>
       </c>
       <c r="AC90" s="4"/>
@@ -9368,47 +9371,47 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <f>(I46-K46)/(H46+I46)</f>
+        <f t="shared" si="0"/>
         <v>0.80006248047485162</v>
       </c>
       <c r="D91">
-        <f>K46/I46</f>
+        <f t="shared" si="1"/>
         <v>0.1999375195251484</v>
       </c>
       <c r="E91">
-        <f>IF((J46+K46)&gt;(H46+I46),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F91">
-        <f>N46/(H46+I46)</f>
+        <f t="shared" si="3"/>
         <v>0.68384879725085912</v>
       </c>
       <c r="G91">
-        <f>IF(AND(N46&lt;0, O46&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H91">
-        <f>(N46-O46)/(ABS(N46)+ABS(O46))</f>
+        <f t="shared" si="5"/>
         <v>-0.3428399879915941</v>
       </c>
       <c r="I91">
-        <f>Q46/R46</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J91">
-        <f>R46/L46</f>
+        <f t="shared" si="13"/>
         <v>1.5200160128102482</v>
       </c>
       <c r="K91">
-        <f>N46/I46</f>
+        <f t="shared" si="8"/>
         <v>0.68384879725085912</v>
       </c>
       <c r="L91">
-        <f>I46/K46</f>
+        <f t="shared" si="9"/>
         <v>5.0015625000000004</v>
       </c>
       <c r="M91">
-        <f>(H46+I46-J46-K46)/(H46+I46)</f>
+        <f t="shared" si="10"/>
         <v>0.80006248047485162</v>
       </c>
       <c r="N91">
@@ -9488,47 +9491,47 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <f>(I47-K47)/(H47+I47)</f>
+        <f t="shared" si="0"/>
         <v>0.28340592448566798</v>
       </c>
       <c r="D92">
-        <f>K47/I47</f>
+        <f t="shared" si="1"/>
         <v>0.62299542666523644</v>
       </c>
       <c r="E92">
-        <f>IF((J47+K47)&gt;(H47+I47),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F92">
-        <f>N47/(H47+I47)</f>
+        <f t="shared" si="3"/>
         <v>4.7462705121978609E-2</v>
       </c>
       <c r="G92">
-        <f>IF(AND(N47&lt;0, O47&lt;0), 1, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H92">
-        <f>(N47-O47)/(ABS(N47)+ABS(O47))</f>
+        <f t="shared" si="5"/>
         <v>0.42900019457273059</v>
       </c>
       <c r="I92">
-        <f>Q47/R47</f>
+        <f t="shared" si="14"/>
         <v>3.266951256760985E-3</v>
       </c>
       <c r="J92">
-        <f>R47/L47</f>
+        <f t="shared" si="13"/>
         <v>1.1325921066026305</v>
       </c>
       <c r="K92">
-        <f>N47/I47</f>
+        <f t="shared" si="8"/>
         <v>6.3137906966126742E-2</v>
       </c>
       <c r="L92">
-        <f>I47/K47</f>
+        <f t="shared" si="9"/>
         <v>1.6051482197113225</v>
       </c>
       <c r="M92">
-        <f>(H47+I47-J47-K47)/(H47+I47)</f>
+        <f t="shared" si="10"/>
         <v>0.14791089902963175</v>
       </c>
       <c r="N92">
@@ -15528,6 +15531,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F5:J5"/>
     <mergeCell ref="N49:N51"/>
     <mergeCell ref="O49:O51"/>
     <mergeCell ref="P49:P51"/>
@@ -15544,7 +15548,6 @@
     <mergeCell ref="K49:K51"/>
     <mergeCell ref="L49:L51"/>
     <mergeCell ref="M49:M51"/>
-    <mergeCell ref="F5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
@@ -15555,8 +15558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15593,8 +15596,8 @@
       <c r="J1" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="23"/>
@@ -15606,8 +15609,8 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23"/>
@@ -15619,8 +15622,8 @@
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -16932,18 +16935,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
+  <mergeCells count="9">
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
